--- a/data/trans_dic/P13_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04233832020495302</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04093256144194962</v>
+        <v>0.04093256144194961</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04678092543700337</v>
@@ -697,7 +697,7 @@
         <v>0.0387972701301405</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04266166157368042</v>
+        <v>0.0426616615736804</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02605957169111526</v>
+        <v>0.02541352778211139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02176890749526629</v>
+        <v>0.02088968365727843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02087410785504979</v>
+        <v>0.02117852851469853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02931572025978972</v>
+        <v>0.02850946938135129</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02894314295309189</v>
+        <v>0.02963816610725759</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01887933892150423</v>
+        <v>0.02134581593071147</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02298081759451054</v>
+        <v>0.02479000342608556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02801897509914848</v>
+        <v>0.02945868326636818</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03303243856789189</v>
+        <v>0.03351585836794219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02522781766168668</v>
+        <v>0.02458680119087518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02592708677069127</v>
+        <v>0.02533720096942246</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03226913220194067</v>
+        <v>0.03280782380463338</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06458401892941747</v>
+        <v>0.06521091129158407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06193793179400228</v>
+        <v>0.06100814524311775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05896336439881009</v>
+        <v>0.05954886459334965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06575184267783808</v>
+        <v>0.06444649611897611</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07814450443915731</v>
+        <v>0.08367773772545845</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06096038071068199</v>
+        <v>0.0642950454864946</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06959006987255807</v>
+        <v>0.07303077249568031</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05606893573196758</v>
+        <v>0.05743251643189051</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06472418249885042</v>
+        <v>0.06422086080778595</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05447237865800053</v>
+        <v>0.05417997468084217</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05548095741236455</v>
+        <v>0.05456087323686524</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05568245819071379</v>
+        <v>0.05557399172151973</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02942419224295867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03322237731108381</v>
+        <v>0.0332223773110838</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02457108516737342</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004558392662802805</v>
+        <v>0.002473957406358455</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02466896293315585</v>
+        <v>0.02485311038664227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01555480526112807</v>
+        <v>0.01596729173489578</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02103511681495137</v>
+        <v>0.02111790023120606</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01155375073013845</v>
+        <v>0.0114089437225376</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03764516411894109</v>
+        <v>0.03508301904632138</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008681301517300712</v>
+        <v>0.008978480472473136</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02999422591826782</v>
+        <v>0.02990784942903615</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009903934707728393</v>
+        <v>0.009745814405316933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03396072920999665</v>
+        <v>0.03511902060096816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01568740447444292</v>
+        <v>0.0163550020950207</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02891073592159262</v>
+        <v>0.02744049943104459</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03837485285864377</v>
+        <v>0.03372115148335646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06514020212609624</v>
+        <v>0.07033181623268354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05161020486915831</v>
+        <v>0.05285812084602909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05412517738914371</v>
+        <v>0.05173938411245178</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04744866495451491</v>
+        <v>0.04490730528969192</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09816399180916126</v>
+        <v>0.09389473087582932</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03957489152224722</v>
+        <v>0.0412551814298503</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06337221129989186</v>
+        <v>0.06410410218283903</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03296238138498796</v>
+        <v>0.03203634949435406</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06910112552628805</v>
+        <v>0.07074566646771853</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03884107440984073</v>
+        <v>0.04052338203417719</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05174580411636347</v>
+        <v>0.05094927113857008</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008240200739997972</v>
+        <v>0.008753427002943695</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03783956226099768</v>
+        <v>0.03751074491895082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02499025554027457</v>
+        <v>0.02527030165644182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03547824312534061</v>
+        <v>0.0358845516513738</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03751745548213963</v>
+        <v>0.0421984368096437</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06285951473713478</v>
+        <v>0.05890732237238369</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05173726953793568</v>
+        <v>0.04958356884570886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07259123559053315</v>
+        <v>0.07339961620035458</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0197923426208987</v>
+        <v>0.0202469265663487</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04919173522920921</v>
+        <v>0.04945815663458145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03666193983490995</v>
+        <v>0.03782425608059663</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05265258712822701</v>
+        <v>0.05381532437878941</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03261308841268632</v>
+        <v>0.03268070178170511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0808714049178683</v>
+        <v>0.08186307070410272</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06396045719296439</v>
+        <v>0.06314466102192917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08123343798000314</v>
+        <v>0.0826156337616766</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1265400677029697</v>
+        <v>0.1304771567121416</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1336630656754537</v>
+        <v>0.1321293980860458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1431995464766948</v>
+        <v>0.1472440691006372</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1438995857185912</v>
+        <v>0.1491403378975255</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04608440231905785</v>
+        <v>0.04818183094105035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08401065468654172</v>
+        <v>0.08404501023764196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07278067580628884</v>
+        <v>0.07414547936991588</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09022565697065293</v>
+        <v>0.09018635879753188</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.0452148463524748</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06451986728357567</v>
+        <v>0.06451986728357569</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02573433103078136</v>
+        <v>0.02576950326065541</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03840568029608057</v>
+        <v>0.04028002691265616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02462420588398096</v>
+        <v>0.02256991119019748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05278011051575595</v>
+        <v>0.05322632944018412</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03335683689490915</v>
+        <v>0.03468565392303923</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05915581279341545</v>
+        <v>0.05793938149528037</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04631687953545631</v>
+        <v>0.04607705001938775</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04987980350313344</v>
+        <v>0.04903755328834845</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03317846474709452</v>
+        <v>0.03159906464667335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04957984754800272</v>
+        <v>0.05121393259705243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03592703304508377</v>
+        <v>0.03706073647496478</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05515986679076434</v>
+        <v>0.05488863964777132</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04602741069498996</v>
+        <v>0.04721496600021742</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06604346892501489</v>
+        <v>0.06576964137748974</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04695738741178318</v>
+        <v>0.04615124866657797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08504437890539833</v>
+        <v>0.08424693532609258</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06596242255363988</v>
+        <v>0.06816656202575903</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09886389449626498</v>
+        <v>0.09776668808305052</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08103763180628029</v>
+        <v>0.0812286023545124</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07728378337431195</v>
+        <v>0.0765905973575217</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0512814697557565</v>
+        <v>0.05046601898897714</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07445167901740431</v>
+        <v>0.07396854519911289</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05553027941842559</v>
+        <v>0.05783825463576813</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07673687701373037</v>
+        <v>0.07533062411846358</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.06423398798630602</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1006172522982587</v>
+        <v>0.1006172522982586</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04322738194633022</v>
@@ -1241,7 +1241,7 @@
         <v>0.05693516828011367</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08624131069124348</v>
+        <v>0.08624131069124349</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02878704703205923</v>
+        <v>0.02771003969292215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02325525162814368</v>
+        <v>0.02357765368687351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03404873306209168</v>
+        <v>0.03396052952613389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04803840319340467</v>
+        <v>0.04640855007023219</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02537858506628533</v>
+        <v>0.02615017897258671</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09998660880307961</v>
+        <v>0.1011064868936512</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04713274317880243</v>
+        <v>0.04764303093819107</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08648789718086994</v>
+        <v>0.08448147800460434</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03089281383244737</v>
+        <v>0.03133064017619731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07366865521059526</v>
+        <v>0.07359829579287722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04629950213287728</v>
+        <v>0.04543507948465435</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07329272101448399</v>
+        <v>0.07412920283653779</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07960807764014431</v>
+        <v>0.0755548499474033</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05826232339167869</v>
+        <v>0.05636139456835493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06731905227366496</v>
+        <v>0.06824957282172246</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08878774934689834</v>
+        <v>0.08902769366057532</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05903727490693011</v>
+        <v>0.05947134278810733</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1486870620855008</v>
+        <v>0.1472130460686943</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08491498072393655</v>
+        <v>0.08473514328048407</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1181762579353352</v>
+        <v>0.1167559726743476</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05754496576818961</v>
+        <v>0.05985037175746047</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1065828394357243</v>
+        <v>0.1053158182876914</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07231564530859785</v>
+        <v>0.07259609582054082</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09947830974117051</v>
+        <v>0.09911139404049511</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009925044344277186</v>
+        <v>0.010281265245581</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02408681883845834</v>
+        <v>0.02321409514057701</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006931290865161376</v>
+        <v>0.007166631329345921</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04354619647932701</v>
+        <v>0.04262695932590993</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09256406295007603</v>
+        <v>0.09150414178016883</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04291203556537426</v>
+        <v>0.04132540451657212</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07260602864463765</v>
+        <v>0.07370152535049464</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03901647747183886</v>
+        <v>0.0384707471240831</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08368975943649971</v>
+        <v>0.08209931311677582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03354971287398947</v>
+        <v>0.03315473196774292</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06038131104212748</v>
+        <v>0.06145417722611927</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0518621213538166</v>
+        <v>0.0502148245903503</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0821967155933673</v>
+        <v>0.08200654041382276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02032013766816036</v>
+        <v>0.0200627083608694</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04207712581008674</v>
+        <v>0.03996094244222356</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06842674935781157</v>
+        <v>0.06834855154015813</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1329928933980646</v>
+        <v>0.1288553964496808</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07107857461386685</v>
+        <v>0.06962627452017099</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1044976889893882</v>
+        <v>0.103933768719897</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06122009542449436</v>
+        <v>0.06106908584244729</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1155099004789425</v>
+        <v>0.1148423292147717</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05782729109434281</v>
+        <v>0.05714011939066103</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08668575557375791</v>
+        <v>0.08694394143363794</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02619114444432064</v>
+        <v>0.02623496485543304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03957035226036682</v>
+        <v>0.03956972520013811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02868125366067518</v>
+        <v>0.02854371435805248</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04621011660333956</v>
+        <v>0.04565746392182452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04108573649146138</v>
+        <v>0.04140553770343594</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08414526804559286</v>
+        <v>0.08282572758783456</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04807176311285381</v>
+        <v>0.04748152909102229</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0677097385128354</v>
+        <v>0.06767889428492682</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03561989717196747</v>
+        <v>0.03531643249485931</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06436694430408152</v>
+        <v>0.06420727067304431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04004958169037871</v>
+        <v>0.04051782528932424</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05855821243928185</v>
+        <v>0.05906263188398563</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03887227072147721</v>
+        <v>0.0392408441449045</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05533847860231091</v>
+        <v>0.05385195884905356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04209018512379285</v>
+        <v>0.04125061180334452</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06135155476650966</v>
+        <v>0.06099459358097589</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05599099052690937</v>
+        <v>0.05697658313569551</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1035589195339477</v>
+        <v>0.1027032967718866</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06385085309058985</v>
+        <v>0.06434905779840826</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08148938296429907</v>
+        <v>0.0820412288154057</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04605816882713104</v>
+        <v>0.04588408463350372</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.076941739285179</v>
+        <v>0.07737637717079501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05042155880110411</v>
+        <v>0.05029108728607973</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06909459764026528</v>
+        <v>0.06901737442838859</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12346</v>
+        <v>12040</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9497</v>
+        <v>9113</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8937</v>
+        <v>9067</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16142</v>
+        <v>15698</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8876</v>
+        <v>9089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5937</v>
+        <v>6712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7933</v>
+        <v>8557</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13685</v>
+        <v>14388</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25780</v>
+        <v>26158</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18939</v>
+        <v>18458</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20050</v>
+        <v>19593</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>33529</v>
+        <v>34088</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30598</v>
+        <v>30895</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27021</v>
+        <v>26616</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25243</v>
+        <v>25494</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36204</v>
+        <v>35485</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23965</v>
+        <v>25662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19169</v>
+        <v>20218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24022</v>
+        <v>25209</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27385</v>
+        <v>28051</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50514</v>
+        <v>50122</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40893</v>
+        <v>40674</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42904</v>
+        <v>42192</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57856</v>
+        <v>57743</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1673</v>
+        <v>908</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10331</v>
+        <v>10408</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5868</v>
+        <v>6023</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10164</v>
+        <v>10204</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4296</v>
+        <v>4243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12724</v>
+        <v>11858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3232</v>
+        <v>3342</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12692</v>
+        <v>12655</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7317</v>
+        <v>7200</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25702</v>
+        <v>26578</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11758</v>
+        <v>12258</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26203</v>
+        <v>24871</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14081</v>
+        <v>12373</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27281</v>
+        <v>29455</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19469</v>
+        <v>19940</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26154</v>
+        <v>25001</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17644</v>
+        <v>16699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33181</v>
+        <v>31737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14733</v>
+        <v>15358</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26816</v>
+        <v>27125</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24353</v>
+        <v>23668</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52296</v>
+        <v>53541</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29111</v>
+        <v>30372</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46900</v>
+        <v>46178</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4469</v>
+        <v>4748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23817</v>
+        <v>23610</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13043</v>
+        <v>13189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16699</v>
+        <v>16890</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6295</v>
+        <v>7080</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16352</v>
+        <v>15324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8595</v>
+        <v>8237</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13576</v>
+        <v>13727</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14056</v>
+        <v>14379</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>43758</v>
+        <v>43995</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25225</v>
+        <v>26024</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>34629</v>
+        <v>35394</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17689</v>
+        <v>17726</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50902</v>
+        <v>51526</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33382</v>
+        <v>32956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38235</v>
+        <v>38885</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21231</v>
+        <v>21892</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34770</v>
+        <v>34371</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23789</v>
+        <v>24461</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26912</v>
+        <v>27892</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32728</v>
+        <v>34217</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>74731</v>
+        <v>74762</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50076</v>
+        <v>51015</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>59341</v>
+        <v>59315</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31868</v>
+        <v>31911</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44436</v>
+        <v>46605</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28309</v>
+        <v>25947</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>59739</v>
+        <v>60244</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23826</v>
+        <v>24775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45237</v>
+        <v>44306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38164</v>
+        <v>37966</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42957</v>
+        <v>42232</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>64785</v>
+        <v>61701</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>95278</v>
+        <v>98419</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>70906</v>
+        <v>73144</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>109937</v>
+        <v>109396</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56997</v>
+        <v>58468</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76413</v>
+        <v>76096</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53984</v>
+        <v>53057</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>96257</v>
+        <v>95354</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47116</v>
+        <v>48690</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>75602</v>
+        <v>74762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>66773</v>
+        <v>66930</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66558</v>
+        <v>65961</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100133</v>
+        <v>98541</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>143075</v>
+        <v>142147</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>109595</v>
+        <v>114150</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>152941</v>
+        <v>150138</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10091</v>
+        <v>9714</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11874</v>
+        <v>12039</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21134</v>
+        <v>21080</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27185</v>
+        <v>26262</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14434</v>
+        <v>14873</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>76142</v>
+        <v>76995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34795</v>
+        <v>35172</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>71684</v>
+        <v>70021</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28400</v>
+        <v>28802</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>93715</v>
+        <v>93626</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>62919</v>
+        <v>61744</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>102223</v>
+        <v>103390</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27907</v>
+        <v>26486</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29749</v>
+        <v>28778</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41785</v>
+        <v>42363</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50244</v>
+        <v>50380</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33578</v>
+        <v>33824</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113228</v>
+        <v>112106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62688</v>
+        <v>62555</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>97948</v>
+        <v>96771</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>52901</v>
+        <v>55021</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>135586</v>
+        <v>133974</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>98273</v>
+        <v>98654</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>138745</v>
+        <v>138233</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2960</v>
+        <v>3066</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6428</v>
+        <v>6195</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1644</v>
+        <v>1700</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>54379</v>
+        <v>53231</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>102584</v>
+        <v>101410</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>46377</v>
+        <v>44663</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>61125</v>
+        <v>62048</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>60357</v>
+        <v>59513</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>115085</v>
+        <v>112898</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>45893</v>
+        <v>45352</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>65158</v>
+        <v>66316</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15465</v>
+        <v>14974</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21937</v>
+        <v>21886</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5835</v>
+        <v>5761</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9982</v>
+        <v>9480</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>85449</v>
+        <v>85351</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>147390</v>
+        <v>142805</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>76818</v>
+        <v>75249</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>87974</v>
+        <v>87500</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>94705</v>
+        <v>94471</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>158842</v>
+        <v>157924</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>79102</v>
+        <v>78162</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>93543</v>
+        <v>93822</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>85650</v>
+        <v>85793</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>135290</v>
+        <v>135288</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>97079</v>
+        <v>96613</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>158938</v>
+        <v>157038</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>138793</v>
+        <v>139873</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>298469</v>
+        <v>293789</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>169528</v>
+        <v>167446</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>245820</v>
+        <v>245708</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>236812</v>
+        <v>234795</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>448383</v>
+        <v>447270</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>276795</v>
+        <v>280031</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>414004</v>
+        <v>417571</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>127120</v>
+        <v>128325</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>189200</v>
+        <v>184118</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142465</v>
+        <v>139623</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>211017</v>
+        <v>209789</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>189145</v>
+        <v>192474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>367331</v>
+        <v>364296</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>225174</v>
+        <v>226931</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>295846</v>
+        <v>297850</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>306209</v>
+        <v>305052</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>535979</v>
+        <v>539007</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>348479</v>
+        <v>347577</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>488496</v>
+        <v>487950</v>
       </c>
     </row>
     <row r="32">
